--- a/biology/Botanique/Liste_des_pommes_de_terre_labellisées_«_produit_agroalimentaire_traditionnel_»/Liste_des_pommes_de_terre_labellisées_«_produit_agroalimentaire_traditionnel_».xlsx
+++ b/biology/Botanique/Liste_des_pommes_de_terre_labellisées_«_produit_agroalimentaire_traditionnel_»/Liste_des_pommes_de_terre_labellisées_«_produit_agroalimentaire_traditionnel_».xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_pommes_de_terre_labellis%C3%A9es_%C2%AB_produit_agroalimentaire_traditionnel_%C2%BB</t>
+          <t>Liste_des_pommes_de_terre_labellisées_«_produit_agroalimentaire_traditionnel_»</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les productions de pommes de terre labellisées « produit agroalimentaire traditionnel » (PAT) en Italie sont répertoriées ci-dessous.
-Ces appellations qui comportent une indication géographique sont spécifiques à l'Italie et ne sont pas reconnues au niveau de l'Union européenne. Elles sont désignées par les Régions italiennes et inscrites dans une liste maintenue par le ministère des Politiques agricoles, alimentaires et forestières[1]. Quelques-unes de ces appellations sont également classées en AOP ou IGP.
+Ces appellations qui comportent une indication géographique sont spécifiques à l'Italie et ne sont pas reconnues au niveau de l'Union européenne. Elles sont désignées par les Régions italiennes et inscrites dans une liste maintenue par le ministère des Politiques agricoles, alimentaires et forestières. Quelques-unes de ces appellations sont également classées en AOP ou IGP.
 </t>
         </is>
       </c>
